--- a/Responsibility_Matrix.xlsx
+++ b/Responsibility_Matrix.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lawrence\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lawrence\Desktop\ghostgrab\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="30">
   <si>
     <t>Step Name</t>
   </si>
@@ -69,6 +69,51 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>Art Assets</t>
+  </si>
+  <si>
+    <t>QA Testing</t>
+  </si>
+  <si>
+    <t>Web Server</t>
+  </si>
+  <si>
+    <t>App Integration with Web Server</t>
+  </si>
+  <si>
+    <t>Location on App</t>
+  </si>
+  <si>
+    <t>Map on App</t>
+  </si>
+  <si>
+    <t>Collision and Encounters</t>
+  </si>
+  <si>
+    <t>Leaderboard Updating</t>
+  </si>
+  <si>
+    <t>Setting Traps</t>
+  </si>
+  <si>
+    <t>Trailer/Intro Video</t>
+  </si>
+  <si>
+    <t>Proximity Detection and Animation</t>
+  </si>
+  <si>
+    <t>Location Interface with Android Kernel</t>
+  </si>
+  <si>
+    <t>Web Site/Forums for Fans</t>
+  </si>
+  <si>
+    <t>Prepare Final Bound Report</t>
+  </si>
+  <si>
+    <t>Complete?</t>
   </si>
 </sst>
 </file>
@@ -100,17 +145,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Baskerville Old Face"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Baskerville Old Face"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -148,13 +193,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -475,24 +520,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="43.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="3"/>
-    <col min="5" max="5" width="21.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.7109375" style="3"/>
+    <col min="1" max="1" width="33.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="43.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="2"/>
+    <col min="5" max="5" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -511,164 +556,356 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="C2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="C3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="F4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="F5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="C6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="F6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="B10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="B12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5"/>
-    </row>
-    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="B14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="5"/>
-    </row>
-    <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="B16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="5"/>
-    </row>
-    <row r="18" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="B17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Responsibility_Matrix.xlsx
+++ b/Responsibility_Matrix.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lawrence\Desktop\ghostgrab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\selin\Documents\Unity Projects\ghostgrab\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="32">
   <si>
     <t>Step Name</t>
   </si>
@@ -114,13 +114,19 @@
   </si>
   <si>
     <t>Complete?</t>
+  </si>
+  <si>
+    <t>Prepare Poster</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,12 +156,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Baskerville Old Face"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -202,7 +202,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -299,23 +299,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -351,23 +334,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -520,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G21" sqref="B1:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -531,10 +497,11 @@
     <col min="1" max="1" width="33.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="43.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="2"/>
+    <col min="4" max="4" width="18.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.7109375" style="2"/>
+    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="20.7109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -575,7 +542,9 @@
         <v>10</v>
       </c>
       <c r="F2" s="5"/>
-      <c r="G2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
@@ -588,11 +557,13 @@
         <v>14</v>
       </c>
       <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="4"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
@@ -611,7 +582,9 @@
       <c r="F4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -630,7 +603,9 @@
       <c r="F5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -651,7 +626,9 @@
       <c r="F6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -660,19 +637,21 @@
       <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="4"/>
+      <c r="C7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -681,19 +660,21 @@
       <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="4"/>
+      <c r="C8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -702,15 +683,17 @@
       <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="C9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -719,17 +702,19 @@
       <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="4"/>
+      <c r="C10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -738,15 +723,17 @@
       <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="4"/>
+      <c r="C11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -755,17 +742,19 @@
       <c r="B12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="4"/>
+      <c r="C12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -774,17 +763,19 @@
       <c r="B13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="C13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -793,15 +784,17 @@
       <c r="B14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="C14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -810,14 +803,14 @@
       <c r="B15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="4" t="s">
+      <c r="C15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="4"/>
@@ -829,14 +822,14 @@
       <c r="B16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="4"/>
+      <c r="C16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="5"/>
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -846,14 +839,14 @@
       <c r="B17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="C17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -863,14 +856,14 @@
       <c r="B18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="C18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -880,14 +873,14 @@
       <c r="B19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="4"/>
+      <c r="C19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="5"/>
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -897,15 +890,28 @@
       <c r="B20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="4"/>
+      <c r="C20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Responsibility_Matrix.xlsx
+++ b/Responsibility_Matrix.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16729"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\selin\Documents\Unity Projects\ghostgrab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lawrence\Desktop\ghostgrab\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -299,6 +299,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -334,6 +351,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
